--- a/doc_new/4.服务器配置文档/通行证配置.xlsx
+++ b/doc_new/4.服务器配置文档/通行证配置.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="23145" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_pass_type" sheetId="2" r:id="rId1"/>
     <sheet name="server_pass_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_pass_data!$C$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_pass_data!$C$1:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
   <si>
     <t>类型</t>
   </si>
@@ -78,28 +78,370 @@
     <t>gj_item_id</t>
   </si>
   <si>
-    <t>1003_500|null</t>
-  </si>
-  <si>
-    <t>500个金币</t>
-  </si>
-  <si>
-    <t>1008_10|1003_500</t>
-  </si>
-  <si>
-    <t>500个金币，十个抽检卷</t>
+    <t>1003_500|1008_10</t>
+  </si>
+  <si>
+    <t>200金币、10个祈福卷轴</t>
+  </si>
+  <si>
+    <t>1008_10|null</t>
+  </si>
+  <si>
+    <t>【祈福卷轴】*10</t>
+  </si>
+  <si>
+    <t>1003_400|null</t>
+  </si>
+  <si>
+    <t>金币*400</t>
+  </si>
+  <si>
+    <t>1294_1000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*1000</t>
+  </si>
+  <si>
+    <t>1003_600|null</t>
+  </si>
+  <si>
+    <t>金币*600</t>
+  </si>
+  <si>
+    <t>1294_2000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*2000</t>
+  </si>
+  <si>
+    <t>1003_800|null</t>
+  </si>
+  <si>
+    <t>金币*800</t>
+  </si>
+  <si>
+    <t>1294_4000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*4000</t>
   </si>
   <si>
     <t>1003_1000|null</t>
   </si>
   <si>
-    <t>1000个金币</t>
-  </si>
-  <si>
-    <t>1008_10|1003_500|1279_10</t>
-  </si>
-  <si>
-    <t>null|null</t>
+    <t>金币*1000</t>
+  </si>
+  <si>
+    <t>1294_6000|1008_10</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*6000、【祈福卷轴】*10</t>
+  </si>
+  <si>
+    <t>1003_1200|null</t>
+  </si>
+  <si>
+    <t>金币*1200</t>
+  </si>
+  <si>
+    <t>1294_8000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*8000</t>
+  </si>
+  <si>
+    <t>1003_1400|null</t>
+  </si>
+  <si>
+    <t>金币*1400</t>
+  </si>
+  <si>
+    <t>1294_10000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*10000</t>
+  </si>
+  <si>
+    <t>1003_1600|1008_10|3501_1</t>
+  </si>
+  <si>
+    <t>金币*1600、【祈福卷轴】*10、精良图鉴箱*1</t>
+  </si>
+  <si>
+    <t>1008_10|2501_1|2027_1</t>
+  </si>
+  <si>
+    <t>【祈福卷轴】*10、【炼狱狼】、【极地虎】</t>
+  </si>
+  <si>
+    <t>1003_1800|null</t>
+  </si>
+  <si>
+    <t>金币*1800</t>
+  </si>
+  <si>
+    <t>1294_12000|1008_10</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*12000、【祈福卷轴】*10</t>
+  </si>
+  <si>
+    <t>1003_2000|null</t>
+  </si>
+  <si>
+    <t>金币*2000</t>
+  </si>
+  <si>
+    <t>1294_14000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*14000</t>
+  </si>
+  <si>
+    <t>1003_2200|null</t>
+  </si>
+  <si>
+    <t>金币*2200</t>
+  </si>
+  <si>
+    <t>1294_16000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*16000</t>
+  </si>
+  <si>
+    <t>1003_2400|null</t>
+  </si>
+  <si>
+    <t>金币*2400</t>
+  </si>
+  <si>
+    <t>1294_18000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*18000</t>
+  </si>
+  <si>
+    <t>1003_2600|1008_5</t>
+  </si>
+  <si>
+    <t>金币*2600、【祈福卷轴】*5</t>
+  </si>
+  <si>
+    <t>1294_20000|1008_10</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*20000、【祈福卷轴】*10</t>
+  </si>
+  <si>
+    <t>1003_2800|null</t>
+  </si>
+  <si>
+    <t>金币*2800</t>
+  </si>
+  <si>
+    <t>1294_22000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*22000</t>
+  </si>
+  <si>
+    <t>1003_3000|null</t>
+  </si>
+  <si>
+    <t>金币*3000</t>
+  </si>
+  <si>
+    <t>1294_24000|null</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*24000</t>
+  </si>
+  <si>
+    <t>1003_3200|1008_10|3501_1</t>
+  </si>
+  <si>
+    <t>金币*3200、【祈福卷轴】*10、精良图鉴箱*1</t>
+  </si>
+  <si>
+    <t>1294_26000|3501_10</t>
+  </si>
+  <si>
+    <t>【万能精通经验】*26000、精良图鉴箱*10</t>
+  </si>
+  <si>
+    <t>1003_3400|null</t>
+  </si>
+  <si>
+    <t>金币*3400</t>
+  </si>
+  <si>
+    <t>1003_3600|null</t>
+  </si>
+  <si>
+    <t>金币*3600</t>
+  </si>
+  <si>
+    <t>1003_3800|null</t>
+  </si>
+  <si>
+    <t>金币*3800</t>
+  </si>
+  <si>
+    <t>1003_4000|null</t>
+  </si>
+  <si>
+    <t>金币*4000</t>
+  </si>
+  <si>
+    <t>1003_4200|1008_5|3501_1</t>
+  </si>
+  <si>
+    <t>金币*4200、【祈福卷轴】*5、精良图鉴箱*1</t>
+  </si>
+  <si>
+    <t>1008_10|3501_10</t>
+  </si>
+  <si>
+    <t>【祈福卷轴】*10、精良图鉴箱*10</t>
+  </si>
+  <si>
+    <t>1003_4400|null</t>
+  </si>
+  <si>
+    <t>金币*4400</t>
+  </si>
+  <si>
+    <t>1003_4600|null</t>
+  </si>
+  <si>
+    <t>金币*4600</t>
+  </si>
+  <si>
+    <t>1003_4800|1008_10|3502_1</t>
+  </si>
+  <si>
+    <t>金币*4800、【祈福卷轴】*10、史诗图鉴箱*1</t>
+  </si>
+  <si>
+    <t>1008_10|3502_10</t>
+  </si>
+  <si>
+    <t>【祈福卷轴】*10、史诗图鉴箱*10</t>
+  </si>
+  <si>
+    <t>1003_5000|null</t>
+  </si>
+  <si>
+    <t>金币*5000</t>
+  </si>
+  <si>
+    <t>1003_5200|null</t>
+  </si>
+  <si>
+    <t>金币*5200</t>
+  </si>
+  <si>
+    <t>1003_5400|null</t>
+  </si>
+  <si>
+    <t>金币*5400</t>
+  </si>
+  <si>
+    <t>1003_5600|null</t>
+  </si>
+  <si>
+    <t>金币*5600</t>
+  </si>
+  <si>
+    <t>1003_5800|1008_5|3502_1</t>
+  </si>
+  <si>
+    <t>金币*5800、【祈福卷轴】*5、史诗图鉴箱*1</t>
+  </si>
+  <si>
+    <t>1008_10|1294_50000</t>
+  </si>
+  <si>
+    <t>【祈福卷轴】*10、【万能精通经验】*50000</t>
+  </si>
+  <si>
+    <t>1003_6000|null</t>
+  </si>
+  <si>
+    <t>金币*6000</t>
+  </si>
+  <si>
+    <t>1003_6200|null</t>
+  </si>
+  <si>
+    <t>金币*6200</t>
+  </si>
+  <si>
+    <t>1003_6400|1008_10|3502_1</t>
+  </si>
+  <si>
+    <t>金币*6400、【祈福卷轴】*10、史诗图鉴箱*1</t>
+  </si>
+  <si>
+    <t>1003_6600|null</t>
+  </si>
+  <si>
+    <t>金币*6600</t>
+  </si>
+  <si>
+    <t>1003_6800|null</t>
+  </si>
+  <si>
+    <t>金币*6800</t>
+  </si>
+  <si>
+    <t>1003_7000|null</t>
+  </si>
+  <si>
+    <t>金币*7000</t>
+  </si>
+  <si>
+    <t>1003_7200|null</t>
+  </si>
+  <si>
+    <t>金币*7200</t>
+  </si>
+  <si>
+    <t>1003_7400|1008_5|3502_1</t>
+  </si>
+  <si>
+    <t>金币*7400、【祈福卷轴】*5、史诗图鉴箱*1</t>
+  </si>
+  <si>
+    <t>1003_7600|null</t>
+  </si>
+  <si>
+    <t>金币*7600</t>
+  </si>
+  <si>
+    <t>1008_10|3503_5</t>
+  </si>
+  <si>
+    <t>【祈福卷轴】*10、传说图鉴箱*5</t>
+  </si>
+  <si>
+    <t>1003_7800|null</t>
+  </si>
+  <si>
+    <t>金币*7800</t>
+  </si>
+  <si>
+    <t>1003_8000|1008_10|3503_1</t>
+  </si>
+  <si>
+    <t>金币*8000、【祈福卷轴】*10、传说图鉴箱*1</t>
+  </si>
+  <si>
+    <t>20104_1|3525_1</t>
+  </si>
+  <si>
+    <t>【称号：元素大陆的征服者】*1、元素大陆图的鉴箱（自选）*1</t>
   </si>
 </sst>
 </file>
@@ -112,13 +454,33 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -137,6 +499,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -285,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +662,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5A5A5A"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,12 +686,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -506,18 +880,136 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFFFFFFF"/>
       </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -540,63 +1032,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -727,137 +1163,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,10 +1303,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,17 +1315,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -946,7 +1400,292 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B716D4FE-E315-4A3D-8257-24CD48FC2B68}">
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="2"/>
+      <tableStyleElement type="firstTotalCell" dxfId="1"/>
+      <tableStyleElement type="lastTotalCell" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1205,13 +1944,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="39.125" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
@@ -1222,10 +1961,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1233,10 +1972,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1244,10 +1983,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="16">
         <v>20201</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="16">
         <v>20202</v>
       </c>
     </row>
@@ -1255,11 +1994,55 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="17">
+        <v>20203</v>
+      </c>
+      <c r="C4" s="16">
         <v>20204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20205</v>
+      </c>
+      <c r="C5">
+        <v>20206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20207</v>
+      </c>
+      <c r="C6">
+        <v>20208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>20209</v>
+      </c>
+      <c r="C7">
+        <v>20210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20211</v>
+      </c>
+      <c r="C8">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -1271,158 +2054,988 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="5" width="20.675" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="51.5" customWidth="1"/>
     <col min="10" max="10" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" customHeight="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="88.5" customHeight="1" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="3" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="9">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="88.5" customHeight="1" spans="1:7">
-      <c r="A4">
+    <row r="4" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:7">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>19</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>20</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="88.5" customHeight="1" spans="1:7">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>21</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="88.5" customHeight="1" spans="1:7">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>16</v>
+    <row r="25" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>23</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <v>24</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>25</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>26</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>27</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>28</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>29</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>30</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>31</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>32</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <v>33</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A36" s="8">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>34</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A37" s="8">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
+        <v>35</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A38" s="8">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>36</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A39" s="8">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9">
+        <v>37</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A40" s="8">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9">
+        <v>38</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A41" s="8">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9">
+        <v>39</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:7">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <v>40</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C6" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="B2:I83">

--- a/doc_new/4.服务器配置文档/通行证配置.xlsx
+++ b/doc_new/4.服务器配置文档/通行证配置.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="server_pass_type" sheetId="2" r:id="rId1"/>
     <sheet name="server_pass_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_pass_data!$C$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_pass_data!$C$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="137">
   <si>
     <t>类型</t>
   </si>
@@ -479,7 +479,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1293,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,9 +1331,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1673,7 +1669,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B716D4FE-E315-4A3D-8257-24CD48FC2B68}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3EC6EAEB-8A4C-4FF5-BD2B-038B115FA59C}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
@@ -1947,7 +1943,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1961,10 +1957,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1972,10 +1968,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1983,10 +1979,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>20201</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>20202</v>
       </c>
     </row>
@@ -1994,10 +1990,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>20203</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>20204</v>
       </c>
     </row>
@@ -2054,10 +2050,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2216,13 +2212,13 @@
       <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -2239,13 +2235,13 @@
       <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -2262,13 +2258,13 @@
       <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2285,13 +2281,13 @@
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -2308,13 +2304,13 @@
       <c r="C11" s="9">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -2331,13 +2327,13 @@
       <c r="C12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -2354,13 +2350,13 @@
       <c r="C13" s="9">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -2377,13 +2373,13 @@
       <c r="C14" s="9">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -2400,13 +2396,13 @@
       <c r="C15" s="9">
         <v>13</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -2423,13 +2419,13 @@
       <c r="C16" s="9">
         <v>14</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -2446,13 +2442,13 @@
       <c r="C17" s="9">
         <v>15</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -2469,13 +2465,13 @@
       <c r="C18" s="9">
         <v>16</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -2492,13 +2488,13 @@
       <c r="C19" s="9">
         <v>17</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -2515,13 +2511,13 @@
       <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -2538,13 +2534,13 @@
       <c r="C21" s="9">
         <v>19</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -2561,13 +2557,13 @@
       <c r="C22" s="9">
         <v>20</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -2584,13 +2580,13 @@
       <c r="C23" s="9">
         <v>21</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="9" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -2607,13 +2603,13 @@
       <c r="C24" s="9">
         <v>22</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -2630,13 +2626,13 @@
       <c r="C25" s="9">
         <v>23</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -2653,13 +2649,13 @@
       <c r="C26" s="9">
         <v>24</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -2676,13 +2672,13 @@
       <c r="C27" s="9">
         <v>25</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -2699,13 +2695,13 @@
       <c r="C28" s="9">
         <v>26</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="11" t="s">
@@ -2722,13 +2718,13 @@
       <c r="C29" s="9">
         <v>27</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -2745,13 +2741,13 @@
       <c r="C30" s="9">
         <v>28</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -2768,13 +2764,13 @@
       <c r="C31" s="9">
         <v>29</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G31" s="11" t="s">
@@ -2791,13 +2787,13 @@
       <c r="C32" s="9">
         <v>30</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="11" t="s">
@@ -2814,13 +2810,13 @@
       <c r="C33" s="9">
         <v>31</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="11" t="s">
@@ -2837,13 +2833,13 @@
       <c r="C34" s="9">
         <v>32</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -2860,13 +2856,13 @@
       <c r="C35" s="9">
         <v>33</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -2883,13 +2879,13 @@
       <c r="C36" s="9">
         <v>34</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="11" t="s">
@@ -2906,13 +2902,13 @@
       <c r="C37" s="9">
         <v>35</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -2929,13 +2925,13 @@
       <c r="C38" s="9">
         <v>36</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="11" t="s">
@@ -2952,13 +2948,13 @@
       <c r="C39" s="9">
         <v>37</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>125</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G39" s="11" t="s">
@@ -2975,13 +2971,13 @@
       <c r="C40" s="9">
         <v>38</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="9" t="s">
         <v>129</v>
       </c>
       <c r="G40" s="11" t="s">
@@ -2998,13 +2994,13 @@
       <c r="C41" s="9">
         <v>39</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="9" t="s">
         <v>129</v>
       </c>
       <c r="G41" s="11" t="s">
@@ -3021,21 +3017,941 @@
       <c r="C42" s="9">
         <v>40</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="43" ht="16.5" spans="1:7">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:7">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:7">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:7">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2</v>
+      </c>
+      <c r="C46" s="9">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:7">
+      <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>5</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:7">
+      <c r="A48" s="8">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9">
+        <v>6</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:7">
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>7</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:7">
+      <c r="A50" s="8">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9">
+        <v>8</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:7">
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9">
+        <v>9</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:7">
+      <c r="A52" s="8">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9">
+        <v>10</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:7">
+      <c r="A53" s="8">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2</v>
+      </c>
+      <c r="C53" s="9">
+        <v>11</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:7">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2</v>
+      </c>
+      <c r="C54" s="9">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="1:7">
+      <c r="A55" s="8">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2</v>
+      </c>
+      <c r="C55" s="9">
+        <v>13</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="1:7">
+      <c r="A56" s="8">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>14</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="1:7">
+      <c r="A57" s="8">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2</v>
+      </c>
+      <c r="C57" s="9">
+        <v>15</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" spans="1:7">
+      <c r="A58" s="8">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2</v>
+      </c>
+      <c r="C58" s="9">
+        <v>16</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="1:7">
+      <c r="A59" s="8">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9">
+        <v>2</v>
+      </c>
+      <c r="C59" s="9">
+        <v>17</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="1:7">
+      <c r="A60" s="8">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2</v>
+      </c>
+      <c r="C60" s="9">
+        <v>18</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="1:7">
+      <c r="A61" s="8">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9">
+        <v>2</v>
+      </c>
+      <c r="C61" s="9">
+        <v>19</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="1:7">
+      <c r="A62" s="8">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9">
+        <v>2</v>
+      </c>
+      <c r="C62" s="9">
+        <v>20</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="1:7">
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9">
+        <v>21</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="1:7">
+      <c r="A64" s="8">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2</v>
+      </c>
+      <c r="C64" s="9">
+        <v>22</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="1:7">
+      <c r="A65" s="8">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9">
+        <v>2</v>
+      </c>
+      <c r="C65" s="9">
+        <v>23</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="1:7">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9">
+        <v>2</v>
+      </c>
+      <c r="C66" s="9">
+        <v>24</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:7">
+      <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9">
+        <v>2</v>
+      </c>
+      <c r="C67" s="9">
+        <v>25</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="1:7">
+      <c r="A68" s="8">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9">
+        <v>2</v>
+      </c>
+      <c r="C68" s="9">
+        <v>26</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5" spans="1:7">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9">
+        <v>2</v>
+      </c>
+      <c r="C69" s="9">
+        <v>27</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:7">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" s="9">
+        <v>28</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="1:7">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9">
+        <v>2</v>
+      </c>
+      <c r="C71" s="9">
+        <v>29</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:7">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9">
+        <v>2</v>
+      </c>
+      <c r="C72" s="9">
+        <v>30</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:7">
+      <c r="A73" s="8">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" s="9">
+        <v>31</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:7">
+      <c r="A74" s="8">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2</v>
+      </c>
+      <c r="C74" s="9">
+        <v>32</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" spans="1:7">
+      <c r="A75" s="8">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9">
+        <v>2</v>
+      </c>
+      <c r="C75" s="9">
+        <v>33</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="1:7">
+      <c r="A76" s="8">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9">
+        <v>2</v>
+      </c>
+      <c r="C76" s="9">
+        <v>34</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="1:7">
+      <c r="A77" s="8">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9">
+        <v>2</v>
+      </c>
+      <c r="C77" s="9">
+        <v>35</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:7">
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" s="9">
+        <v>36</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="1:7">
+      <c r="A79" s="8">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2</v>
+      </c>
+      <c r="C79" s="9">
+        <v>37</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" spans="1:7">
+      <c r="A80" s="8">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9">
+        <v>2</v>
+      </c>
+      <c r="C80" s="9">
+        <v>38</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" spans="1:7">
+      <c r="A81" s="8">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9">
+        <v>2</v>
+      </c>
+      <c r="C81" s="9">
+        <v>39</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" ht="33" spans="1:7">
+      <c r="A82" s="8">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9">
+        <v>2</v>
+      </c>
+      <c r="C82" s="9">
+        <v>40</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C6" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C42" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="B2:I83">

--- a/doc_new/4.服务器配置文档/通行证配置.xlsx
+++ b/doc_new/4.服务器配置文档/通行证配置.xlsx
@@ -11,7 +11,7 @@
     <sheet name="server_pass_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_pass_data!$C$1:$C$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">server_pass_data!$C$1:$C$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,13 +78,13 @@
     <t>gj_item_id</t>
   </si>
   <si>
-    <t>1003_500|1008_10</t>
+    <t>1003_500|1207_10</t>
   </si>
   <si>
     <t>200金币、10个祈福卷轴</t>
   </si>
   <si>
-    <t>1008_10|null</t>
+    <t>1207_10|null</t>
   </si>
   <si>
     <t>【祈福卷轴】*10</t>
@@ -132,7 +132,7 @@
     <t>金币*1000</t>
   </si>
   <si>
-    <t>1294_6000|1008_10</t>
+    <t>1294_6000|1207_10</t>
   </si>
   <si>
     <t>【万能精通经验】*6000、【祈福卷轴】*10</t>
@@ -162,13 +162,13 @@
     <t>【万能精通经验】*10000</t>
   </si>
   <si>
-    <t>1003_1600|1008_10|3501_1</t>
+    <t>1003_1600|1207_10|3501_1</t>
   </si>
   <si>
     <t>金币*1600、【祈福卷轴】*10、精良图鉴箱*1</t>
   </si>
   <si>
-    <t>1008_10|2501_1|2027_1</t>
+    <t>1207_10|2501_1|2027_1</t>
   </si>
   <si>
     <t>【祈福卷轴】*10、【炼狱狼】、【极地虎】</t>
@@ -180,7 +180,7 @@
     <t>金币*1800</t>
   </si>
   <si>
-    <t>1294_12000|1008_10</t>
+    <t>1294_12000|1207_10</t>
   </si>
   <si>
     <t>【万能精通经验】*12000、【祈福卷轴】*10</t>
@@ -222,13 +222,13 @@
     <t>【万能精通经验】*18000</t>
   </si>
   <si>
-    <t>1003_2600|1008_5</t>
+    <t>1003_2600|1207_5</t>
   </si>
   <si>
     <t>金币*2600、【祈福卷轴】*5</t>
   </si>
   <si>
-    <t>1294_20000|1008_10</t>
+    <t>1294_20000|1207_10</t>
   </si>
   <si>
     <t>【万能精通经验】*20000、【祈福卷轴】*10</t>
@@ -258,7 +258,7 @@
     <t>【万能精通经验】*24000</t>
   </si>
   <si>
-    <t>1003_3200|1008_10|3501_1</t>
+    <t>1003_3200|1207_10|3501_1</t>
   </si>
   <si>
     <t>金币*3200、【祈福卷轴】*10、精良图鉴箱*1</t>
@@ -294,13 +294,13 @@
     <t>金币*4000</t>
   </si>
   <si>
-    <t>1003_4200|1008_5|3501_1</t>
+    <t>1003_4200|1207_5|3501_1</t>
   </si>
   <si>
     <t>金币*4200、【祈福卷轴】*5、精良图鉴箱*1</t>
   </si>
   <si>
-    <t>1008_10|3501_10</t>
+    <t>1207_10|3501_10</t>
   </si>
   <si>
     <t>【祈福卷轴】*10、精良图鉴箱*10</t>
@@ -318,13 +318,13 @@
     <t>金币*4600</t>
   </si>
   <si>
-    <t>1003_4800|1008_10|3502_1</t>
+    <t>1003_4800|1207_10|3502_1</t>
   </si>
   <si>
     <t>金币*4800、【祈福卷轴】*10、史诗图鉴箱*1</t>
   </si>
   <si>
-    <t>1008_10|3502_10</t>
+    <t>1207_10|3502_10</t>
   </si>
   <si>
     <t>【祈福卷轴】*10、史诗图鉴箱*10</t>
@@ -354,13 +354,13 @@
     <t>金币*5600</t>
   </si>
   <si>
-    <t>1003_5800|1008_5|3502_1</t>
+    <t>1003_5800|1207_5|3502_1</t>
   </si>
   <si>
     <t>金币*5800、【祈福卷轴】*5、史诗图鉴箱*1</t>
   </si>
   <si>
-    <t>1008_10|1294_50000</t>
+    <t>1207_10|1294_50000</t>
   </si>
   <si>
     <t>【祈福卷轴】*10、【万能精通经验】*50000</t>
@@ -378,7 +378,7 @@
     <t>金币*6200</t>
   </si>
   <si>
-    <t>1003_6400|1008_10|3502_1</t>
+    <t>1003_6400|1207_10|3502_1</t>
   </si>
   <si>
     <t>金币*6400、【祈福卷轴】*10、史诗图鉴箱*1</t>
@@ -408,7 +408,7 @@
     <t>金币*7200</t>
   </si>
   <si>
-    <t>1003_7400|1008_5|3502_1</t>
+    <t>1003_7400|1207_5|3502_1</t>
   </si>
   <si>
     <t>金币*7400、【祈福卷轴】*5、史诗图鉴箱*1</t>
@@ -420,7 +420,7 @@
     <t>金币*7600</t>
   </si>
   <si>
-    <t>1008_10|3503_5</t>
+    <t>1207_10|3503_5</t>
   </si>
   <si>
     <t>【祈福卷轴】*10、传说图鉴箱*5</t>
@@ -432,7 +432,7 @@
     <t>金币*7800</t>
   </si>
   <si>
-    <t>1003_8000|1008_10|3503_1</t>
+    <t>1003_8000|1207_10|3503_1</t>
   </si>
   <si>
     <t>金币*8000、【祈福卷轴】*10、传说图鉴箱*1</t>
@@ -454,7 +454,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,12 +466,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF08090C"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1162,137 +1156,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,22 +1320,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1660,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3EC6EAEB-8A4C-4FF5-BD2B-038B115FA59C}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7EDC97EE-3979-45AF-B095-E19053C8E58F}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
@@ -1943,7 +1934,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1957,10 +1948,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1968,10 +1959,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1979,10 +1970,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>20201</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>20202</v>
       </c>
     </row>
@@ -1990,10 +1981,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>20203</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>20204</v>
       </c>
     </row>
@@ -2052,8 +2043,8 @@
   <sheetPr/>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2146,7 +2137,7 @@
       <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -2169,7 +2160,7 @@
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2192,7 +2183,7 @@
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -2215,7 +2206,7 @@
       <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -2238,7 +2229,7 @@
       <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -2261,7 +2252,7 @@
       <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -2284,7 +2275,7 @@
       <c r="D10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -2307,7 +2298,7 @@
       <c r="D11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2330,7 +2321,7 @@
       <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -2353,7 +2344,7 @@
       <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -2376,7 +2367,7 @@
       <c r="D14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -2399,7 +2390,7 @@
       <c r="D15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -2422,7 +2413,7 @@
       <c r="D16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -2445,7 +2436,7 @@
       <c r="D17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -2468,7 +2459,7 @@
       <c r="D18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -2491,7 +2482,7 @@
       <c r="D19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -2514,7 +2505,7 @@
       <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -2537,7 +2528,7 @@
       <c r="D21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -2560,7 +2551,7 @@
       <c r="D22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -2583,7 +2574,7 @@
       <c r="D23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -2606,7 +2597,7 @@
       <c r="D24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -2629,7 +2620,7 @@
       <c r="D25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -2652,7 +2643,7 @@
       <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -2675,7 +2666,7 @@
       <c r="D27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>100</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -2698,7 +2689,7 @@
       <c r="D28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -2721,7 +2712,7 @@
       <c r="D29" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -2744,7 +2735,7 @@
       <c r="D30" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -2767,7 +2758,7 @@
       <c r="D31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -2790,7 +2781,7 @@
       <c r="D32" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -2813,7 +2804,7 @@
       <c r="D33" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -2836,7 +2827,7 @@
       <c r="D34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -2859,7 +2850,7 @@
       <c r="D35" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -2882,7 +2873,7 @@
       <c r="D36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -2905,7 +2896,7 @@
       <c r="D37" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -2928,7 +2919,7 @@
       <c r="D38" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>124</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -2951,7 +2942,7 @@
       <c r="D39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>126</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -2974,7 +2965,7 @@
       <c r="D40" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -2997,7 +2988,7 @@
       <c r="D41" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>132</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -3020,7 +3011,7 @@
       <c r="D42" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -3066,7 +3057,7 @@
       <c r="D44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -3089,7 +3080,7 @@
       <c r="D45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -3112,7 +3103,7 @@
       <c r="D46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -3135,7 +3126,7 @@
       <c r="D47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -3158,7 +3149,7 @@
       <c r="D48" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -3181,7 +3172,7 @@
       <c r="D49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -3204,7 +3195,7 @@
       <c r="D50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -3227,7 +3218,7 @@
       <c r="D51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -3250,7 +3241,7 @@
       <c r="D52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -3273,7 +3264,7 @@
       <c r="D53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -3296,7 +3287,7 @@
       <c r="D54" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -3319,7 +3310,7 @@
       <c r="D55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -3342,7 +3333,7 @@
       <c r="D56" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -3365,7 +3356,7 @@
       <c r="D57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -3388,7 +3379,7 @@
       <c r="D58" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -3411,7 +3402,7 @@
       <c r="D59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -3434,7 +3425,7 @@
       <c r="D60" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -3457,7 +3448,7 @@
       <c r="D61" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F61" s="9" t="s">
@@ -3480,7 +3471,7 @@
       <c r="D62" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -3503,7 +3494,7 @@
       <c r="D63" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -3526,7 +3517,7 @@
       <c r="D64" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F64" s="9" t="s">
@@ -3549,7 +3540,7 @@
       <c r="D65" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F65" s="9" t="s">
@@ -3572,7 +3563,7 @@
       <c r="D66" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F66" s="9" t="s">
@@ -3595,7 +3586,7 @@
       <c r="D67" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="10" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="9" t="s">
@@ -3618,7 +3609,7 @@
       <c r="D68" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F68" s="9" t="s">
@@ -3641,7 +3632,7 @@
       <c r="D69" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F69" s="9" t="s">
@@ -3664,7 +3655,7 @@
       <c r="D70" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -3687,7 +3678,7 @@
       <c r="D71" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F71" s="9" t="s">
@@ -3710,7 +3701,7 @@
       <c r="D72" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -3733,7 +3724,7 @@
       <c r="D73" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F73" s="9" t="s">
@@ -3756,7 +3747,7 @@
       <c r="D74" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F74" s="9" t="s">
@@ -3779,7 +3770,7 @@
       <c r="D75" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -3802,7 +3793,7 @@
       <c r="D76" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="10" t="s">
         <v>120</v>
       </c>
       <c r="F76" s="9" t="s">
@@ -3825,7 +3816,7 @@
       <c r="D77" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F77" s="9" t="s">
@@ -3848,7 +3839,7 @@
       <c r="D78" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="10" t="s">
         <v>124</v>
       </c>
       <c r="F78" s="9" t="s">
@@ -3871,7 +3862,7 @@
       <c r="D79" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="10" t="s">
         <v>126</v>
       </c>
       <c r="F79" s="9" t="s">
@@ -3894,7 +3885,7 @@
       <c r="D80" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F80" s="9" t="s">
@@ -3917,7 +3908,7 @@
       <c r="D81" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="10" t="s">
         <v>132</v>
       </c>
       <c r="F81" s="9" t="s">
@@ -3940,7 +3931,7 @@
       <c r="D82" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F82" s="9" t="s">
@@ -3951,7 +3942,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C42" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C82" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="B2:I83">
